--- a/form/static/病理切片校內-月結版本 v1.0.xlsx
+++ b/form/static/病理切片校內-月結版本 v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\ntumclab\venv\userform\form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB789EA-7B31-4D4D-A949-7D5F4869198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126059D9-7966-47E7-9340-155B6E36CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18165" yWindow="675" windowWidth="19575" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="540" windowWidth="19575" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 " sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -495,6 +495,28 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,27 +540,9 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,8 +911,8 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="84" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="110" zoomScaleNormal="84" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -926,16 +930,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:9" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="14"/>
@@ -945,12 +949,12 @@
       <c r="E2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
@@ -959,10 +963,10 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="17"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -972,38 +976,38 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1023,219 +1027,219 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="29">
         <f>60*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="11">
         <v>0</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="29">
         <f>60*E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="31">
         <f>70*E13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="11">
         <v>0</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="29">
         <f>60*E14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="34"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="31">
         <f>200*E15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="36"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="11">
         <v>0</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="29">
         <f>100*E16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="34"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="29">
         <f>70*E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="11">
         <v>0</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="29">
         <f>E18*100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="34"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="29">
         <f>550*E19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="29">
         <f>150*E20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="31">
         <f>150*E21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
@@ -1247,8 +1251,8 @@
       <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="23" t="s">
         <v>37</v>
       </c>
@@ -1270,11 +1274,11 @@
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
       <c r="D25" s="1">
         <f>SUM(F11:G21)*D23</f>
         <v>0</v>
@@ -1290,188 +1294,188 @@
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" ht="127.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
@@ -1510,6 +1514,32 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A20:C20"/>
@@ -1521,32 +1551,6 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.67062500000000003" header="0.31496062992125984" footer="0.31496062992125984"/>
